--- a/Code/Results/Cases/Case_3_163/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_163/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.19622698217745</v>
+        <v>0.7213517308646544</v>
       </c>
       <c r="C2">
-        <v>0.1125713315458654</v>
+        <v>0.1718431795037976</v>
       </c>
       <c r="D2">
-        <v>0.05190476882964923</v>
+        <v>0.06496477394830613</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.287426793298479</v>
+        <v>1.511035748728276</v>
       </c>
       <c r="G2">
-        <v>1.273033060956237</v>
+        <v>1.41764259692188</v>
       </c>
       <c r="H2">
-        <v>0.8204825431487137</v>
+        <v>1.288948255308114</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8788670664648919</v>
+        <v>0.3301834923238971</v>
       </c>
       <c r="L2">
-        <v>0.3949816294574759</v>
+        <v>0.3050637716089284</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.038689174473433</v>
+        <v>0.6824973833680588</v>
       </c>
       <c r="C3">
-        <v>0.113049054020987</v>
+        <v>0.1717174886374124</v>
       </c>
       <c r="D3">
-        <v>0.05235667807878031</v>
+        <v>0.06474175850884123</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.203520541132761</v>
+        <v>1.494950897819109</v>
       </c>
       <c r="G3">
-        <v>1.193417060471972</v>
+        <v>1.401719831964201</v>
       </c>
       <c r="H3">
-        <v>0.7905899040390381</v>
+        <v>1.286134612341229</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7611281539301729</v>
+        <v>0.2983940222513581</v>
       </c>
       <c r="L3">
-        <v>0.3482849617276997</v>
+        <v>0.2942318151794296</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9429682474303434</v>
+        <v>0.6590565873403023</v>
       </c>
       <c r="C4">
-        <v>0.113346969691742</v>
+        <v>0.1716358574595223</v>
       </c>
       <c r="D4">
-        <v>0.05262267674058307</v>
+        <v>0.06459688050109236</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.153954723236851</v>
+        <v>1.485791888115344</v>
       </c>
       <c r="G4">
-        <v>1.14654618740515</v>
+        <v>1.392627433488855</v>
       </c>
       <c r="H4">
-        <v>0.7733657310441657</v>
+        <v>1.284895940418238</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6893123518183302</v>
+        <v>0.2790127680990082</v>
       </c>
       <c r="L4">
-        <v>0.3201204999040073</v>
+        <v>0.2877618200802203</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9041831992733478</v>
+        <v>0.6496090867790372</v>
       </c>
       <c r="C5">
-        <v>0.1134695498145248</v>
+        <v>0.1716014723689128</v>
       </c>
       <c r="D5">
-        <v>0.05272836042965601</v>
+        <v>0.06453584962459047</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.134213403002775</v>
+        <v>1.482239630587856</v>
       </c>
       <c r="G5">
-        <v>1.127916775634503</v>
+        <v>1.389093932265439</v>
       </c>
       <c r="H5">
-        <v>0.7666146943527679</v>
+        <v>1.284514069958973</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6601452124360065</v>
+        <v>0.2711494874784961</v>
       </c>
       <c r="L5">
-        <v>0.3087583525289119</v>
+        <v>0.2851706721039022</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8977554991379577</v>
+        <v>0.6480466738018436</v>
       </c>
       <c r="C6">
-        <v>0.1134899759485375</v>
+        <v>0.1715956951510123</v>
       </c>
       <c r="D6">
-        <v>0.05274575027624984</v>
+        <v>0.0645255953687176</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.130962029535979</v>
+        <v>1.48166065290998</v>
       </c>
       <c r="G6">
-        <v>1.124850817158844</v>
+        <v>1.388517559112088</v>
       </c>
       <c r="H6">
-        <v>0.7655094187781799</v>
+        <v>1.284458082175703</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6553073740649324</v>
+        <v>0.2698458978896809</v>
       </c>
       <c r="L6">
-        <v>0.3068782773287495</v>
+        <v>0.2847431561383047</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9424443199106634</v>
+        <v>0.6589287503522314</v>
       </c>
       <c r="C7">
-        <v>0.113348618052429</v>
+        <v>0.1716353982624117</v>
       </c>
       <c r="D7">
-        <v>0.05262411278582668</v>
+        <v>0.06459606547575447</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.153686677245389</v>
+        <v>1.485743252154791</v>
       </c>
       <c r="G7">
-        <v>1.146293083537145</v>
+        <v>1.392579084595155</v>
       </c>
       <c r="H7">
-        <v>0.7732736199533576</v>
+        <v>1.284890292832614</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6889186225040049</v>
+        <v>0.2789065803118405</v>
       </c>
       <c r="L7">
-        <v>0.3199668159474101</v>
+        <v>0.2877266910867462</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.141679145656099</v>
+        <v>0.7078685450143212</v>
       </c>
       <c r="C8">
-        <v>0.1127351097749845</v>
+        <v>0.1718007667288255</v>
       </c>
       <c r="D8">
-        <v>0.05206307361862272</v>
+        <v>0.06488953089796823</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.258069478887975</v>
+        <v>1.505340705730603</v>
       </c>
       <c r="G8">
-        <v>1.24514144476089</v>
+        <v>1.412010204318236</v>
       </c>
       <c r="H8">
-        <v>0.809930946655399</v>
+        <v>1.287876606923348</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8381584630701013</v>
+        <v>0.319193991686177</v>
       </c>
       <c r="L8">
-        <v>0.3787675010924687</v>
+        <v>0.3012913368137191</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.541919133829424</v>
+        <v>0.8071357546114086</v>
       </c>
       <c r="C9">
-        <v>0.1115675929671802</v>
+        <v>0.172089663513276</v>
       </c>
       <c r="D9">
-        <v>0.05086390836158117</v>
+        <v>0.06540172063954586</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.479910849294839</v>
+        <v>1.549475126859335</v>
       </c>
       <c r="G9">
-        <v>1.456688007398611</v>
+        <v>1.455562197576796</v>
       </c>
       <c r="H9">
-        <v>0.8915705722517089</v>
+        <v>1.297615617899424</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.135650339039529</v>
+        <v>0.3992879050318265</v>
       </c>
       <c r="L9">
-        <v>0.4987134112022886</v>
+        <v>0.3293309133720186</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.84414144527392</v>
+        <v>0.8820808639974018</v>
       </c>
       <c r="C10">
-        <v>0.1107305725334502</v>
+        <v>0.1722803140321894</v>
       </c>
       <c r="D10">
-        <v>0.04991135778014311</v>
+        <v>0.06573912850587149</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.655844931814116</v>
+        <v>1.585401943901203</v>
       </c>
       <c r="G10">
-        <v>1.625515099554832</v>
+        <v>1.490911343895732</v>
       </c>
       <c r="H10">
-        <v>0.958689495517234</v>
+        <v>1.307145106672891</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.358770667663492</v>
+        <v>0.4588023491721174</v>
       </c>
       <c r="L10">
-        <v>0.5905918885484027</v>
+        <v>0.3508175090868377</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.983980388764593</v>
+        <v>0.9166140273288761</v>
       </c>
       <c r="C11">
-        <v>0.1103542048328929</v>
+        <v>0.1723623516588191</v>
       </c>
       <c r="D11">
-        <v>0.0494599856748188</v>
+        <v>0.06588411613811473</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.739303923714075</v>
+        <v>1.602511743926357</v>
       </c>
       <c r="G11">
-        <v>1.705869347020695</v>
+        <v>1.50772718989424</v>
       </c>
       <c r="H11">
-        <v>0.9910659749899082</v>
+        <v>1.311997558567356</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.46165792526844</v>
+        <v>0.4860238500847629</v>
       </c>
       <c r="L11">
-        <v>0.6334323118884129</v>
+        <v>0.3607866767967067</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.037325242054692</v>
+        <v>0.9297540808586291</v>
       </c>
       <c r="C12">
-        <v>0.1102123200478626</v>
+        <v>0.1723927423136722</v>
       </c>
       <c r="D12">
-        <v>0.04928625544487986</v>
+        <v>0.06593779154794177</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.771456236870222</v>
+        <v>1.60910133953405</v>
       </c>
       <c r="G12">
-        <v>1.73686720947768</v>
+        <v>1.514201105653001</v>
       </c>
       <c r="H12">
-        <v>1.003618100493554</v>
+        <v>1.313909559136505</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.50085442779482</v>
+        <v>0.4963531996169763</v>
       </c>
       <c r="L12">
-        <v>0.6498258470553253</v>
+        <v>0.364589860963747</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.025818208062105</v>
+        <v>0.9269213324603811</v>
       </c>
       <c r="C13">
-        <v>0.1102428489487259</v>
+        <v>0.1723862271839511</v>
       </c>
       <c r="D13">
-        <v>0.04932379953573474</v>
+        <v>0.06592628630538044</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.764506338612861</v>
+        <v>1.607677234156242</v>
       </c>
       <c r="G13">
-        <v>1.730164949742232</v>
+        <v>1.512802106324699</v>
       </c>
       <c r="H13">
-        <v>1.000901342654373</v>
+        <v>1.313494461774752</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.492401689295491</v>
+        <v>0.49412765050036</v>
       </c>
       <c r="L13">
-        <v>0.6462872608034047</v>
+        <v>0.3637695274645978</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.988360952717812</v>
+        <v>0.9176938041528047</v>
       </c>
       <c r="C14">
-        <v>0.1103425190496647</v>
+        <v>0.1723648654529324</v>
       </c>
       <c r="D14">
-        <v>0.04944575023197473</v>
+        <v>0.0658885566950218</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.74193779015188</v>
+        <v>1.60305165812261</v>
       </c>
       <c r="G14">
-        <v>1.708407793059621</v>
+        <v>1.508257673873004</v>
       </c>
       <c r="H14">
-        <v>0.9920926346063084</v>
+        <v>1.312153366835446</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.464877712495195</v>
+        <v>0.4868732286169006</v>
       </c>
       <c r="L14">
-        <v>0.6347774699410138</v>
+        <v>0.361099003980101</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.965469833472696</v>
+        <v>0.9120498870541951</v>
       </c>
       <c r="C15">
-        <v>0.1104036531819954</v>
+        <v>0.1723516928217208</v>
       </c>
       <c r="D15">
-        <v>0.04952007688041959</v>
+        <v>0.06586528609339481</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.72818703289937</v>
+        <v>1.60023275552453</v>
       </c>
       <c r="G15">
-        <v>1.6951568925017</v>
+        <v>1.50548790894544</v>
       </c>
       <c r="H15">
-        <v>0.9867358909167478</v>
+        <v>1.311341609503671</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.44805024444409</v>
+        <v>0.4824324371597299</v>
       </c>
       <c r="L15">
-        <v>0.6277502779348936</v>
+        <v>0.3594668895562734</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.835054397693284</v>
+        <v>0.8798328812167711</v>
       </c>
       <c r="C16">
-        <v>0.110755257787174</v>
+        <v>0.1722748582333402</v>
       </c>
       <c r="D16">
-        <v>0.04994047498811227</v>
+        <v>0.06572948165979042</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.650464261024169</v>
+        <v>1.584299224811247</v>
       </c>
       <c r="G16">
-        <v>1.620340144809802</v>
+        <v>1.48982721813536</v>
       </c>
       <c r="H16">
-        <v>0.956612945754614</v>
+        <v>1.306838406146198</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.352077658197487</v>
+        <v>0.457026328133793</v>
       </c>
       <c r="L16">
-        <v>0.587814901376575</v>
+        <v>0.3501699259773261</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.755687825992766</v>
+        <v>0.860181397927505</v>
       </c>
       <c r="C17">
-        <v>0.110972083196426</v>
+        <v>0.1722265208460954</v>
       </c>
       <c r="D17">
-        <v>0.05019360494970115</v>
+        <v>0.06564398853166864</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.603699238421072</v>
+        <v>1.574721028250622</v>
       </c>
       <c r="G17">
-        <v>1.575392624685435</v>
+        <v>1.480408499696324</v>
       </c>
       <c r="H17">
-        <v>0.9386239696867165</v>
+        <v>1.30420841871782</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.29358158443145</v>
+        <v>0.4414783324118048</v>
       </c>
       <c r="L17">
-        <v>0.5635974203411536</v>
+        <v>0.3445164798380773</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.710256690185787</v>
+        <v>0.8489198360947228</v>
       </c>
       <c r="C18">
-        <v>0.1110972085449085</v>
+        <v>0.1721982770291834</v>
       </c>
       <c r="D18">
-        <v>0.05033751236957507</v>
+        <v>0.06559401533500164</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.577120060609261</v>
+        <v>1.569284034836272</v>
       </c>
       <c r="G18">
-        <v>1.54987071351033</v>
+        <v>1.475060293204251</v>
       </c>
       <c r="H18">
-        <v>0.9284489879794364</v>
+        <v>1.302744418819401</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.260064577714047</v>
+        <v>0.4325494825533553</v>
       </c>
       <c r="L18">
-        <v>0.5497651321565087</v>
+        <v>0.3412830995061995</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.694910494068552</v>
+        <v>0.845113990724343</v>
       </c>
       <c r="C19">
-        <v>0.1111396447626589</v>
+        <v>0.1721886383675209</v>
       </c>
       <c r="D19">
-        <v>0.05038595361778775</v>
+        <v>0.06557695808271191</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.568173954384719</v>
+        <v>1.567455543027307</v>
       </c>
       <c r="G19">
-        <v>1.541284540759676</v>
+        <v>1.473261354512857</v>
       </c>
       <c r="H19">
-        <v>0.9250326466202239</v>
+        <v>1.302257095492052</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.248737313797193</v>
+        <v>0.429528726865442</v>
       </c>
       <c r="L19">
-        <v>0.5450978138493241</v>
+        <v>0.3401914791567862</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.764113566168874</v>
+        <v>0.8622690433578271</v>
       </c>
       <c r="C20">
-        <v>0.1109489589949444</v>
+        <v>0.1722317121349271</v>
       </c>
       <c r="D20">
-        <v>0.05016683484993578</v>
+        <v>0.06565317224067968</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.608644071043784</v>
+        <v>1.575733176337877</v>
       </c>
       <c r="G20">
-        <v>1.580142731441981</v>
+        <v>1.481403974573027</v>
       </c>
       <c r="H20">
-        <v>0.9405209603587252</v>
+        <v>1.304483344624288</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.29979505615475</v>
+        <v>0.4431320007347779</v>
       </c>
       <c r="L20">
-        <v>0.5661652336540612</v>
+        <v>0.345116401043839</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.999352009311053</v>
+        <v>0.9204024422251678</v>
       </c>
       <c r="C21">
-        <v>0.1103132261406365</v>
+        <v>0.1723711582413934</v>
       </c>
       <c r="D21">
-        <v>0.04941000819627206</v>
+        <v>0.06589967217615111</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.748551373012702</v>
+        <v>1.604407301288177</v>
       </c>
       <c r="G21">
-        <v>1.71478244988279</v>
+        <v>1.509589600764144</v>
       </c>
       <c r="H21">
-        <v>0.9946718192671256</v>
+        <v>1.312545256895135</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.472955483948397</v>
+        <v>0.489003455019315</v>
       </c>
       <c r="L21">
-        <v>0.6381533652996723</v>
+        <v>0.3618826389564873</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.155400043538918</v>
+        <v>0.9587636434100659</v>
       </c>
       <c r="C22">
-        <v>0.1099014625305816</v>
+        <v>0.172458358384457</v>
       </c>
       <c r="D22">
-        <v>0.04889892420661113</v>
+        <v>0.06605361233060592</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.843213871450686</v>
+        <v>1.623791616449267</v>
       </c>
       <c r="G22">
-        <v>1.806127668133314</v>
+        <v>1.528629260068698</v>
       </c>
       <c r="H22">
-        <v>1.031777966365269</v>
+        <v>1.318248358133729</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.587516576651069</v>
+        <v>0.5191063662878435</v>
       </c>
       <c r="L22">
-        <v>0.686208300690879</v>
+        <v>0.3730040273859174</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.071884769796782</v>
+        <v>0.9382559765908809</v>
       </c>
       <c r="C23">
-        <v>0.1101208837361263</v>
+        <v>0.1724121783944028</v>
       </c>
       <c r="D23">
-        <v>0.04917327583335407</v>
+        <v>0.06597210875595394</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.792375879157191</v>
+        <v>1.613386819177407</v>
       </c>
       <c r="G23">
-        <v>1.757047686311921</v>
+        <v>1.518410697300908</v>
       </c>
       <c r="H23">
-        <v>1.011807251501239</v>
+        <v>1.315164753569888</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.526233232014107</v>
+        <v>0.503028641278064</v>
       </c>
       <c r="L23">
-        <v>0.6604610551941335</v>
+        <v>0.3670533348437601</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.76030367691834</v>
+        <v>0.8613251056568458</v>
       </c>
       <c r="C24">
-        <v>0.1109594119841049</v>
+        <v>0.1722293665670449</v>
       </c>
       <c r="D24">
-        <v>0.05017894264336675</v>
+        <v>0.06564902284582885</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.606407561187822</v>
+        <v>1.575275367276475</v>
       </c>
       <c r="G24">
-        <v>1.577994218858862</v>
+        <v>1.480953712511308</v>
       </c>
       <c r="H24">
-        <v>0.9396628123234052</v>
+        <v>1.304358901052552</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.296985595756212</v>
+        <v>0.4423843464418837</v>
       </c>
       <c r="L24">
-        <v>0.5650040443903919</v>
+        <v>0.344845124154844</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.432391383361249</v>
+        <v>0.7799280555617543</v>
       </c>
       <c r="C25">
-        <v>0.1118797428387648</v>
+        <v>0.1720153012040821</v>
       </c>
       <c r="D25">
-        <v>0.05120004885357154</v>
+        <v>0.06526996892149839</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.41781596310264</v>
+        <v>1.536922474914959</v>
       </c>
       <c r="G25">
-        <v>1.397307077905026</v>
+        <v>1.44319387280504</v>
       </c>
       <c r="H25">
-        <v>0.8683235229170521</v>
+        <v>1.294564535048465</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.054495790608797</v>
+        <v>0.3775031716853334</v>
       </c>
       <c r="L25">
-        <v>0.4656772672167051</v>
+        <v>0.3215905022711354</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_163/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_163/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7213517308646544</v>
+        <v>1.196226982177251</v>
       </c>
       <c r="C2">
-        <v>0.1718431795037976</v>
+        <v>0.1125713315457499</v>
       </c>
       <c r="D2">
-        <v>0.06496477394830613</v>
+        <v>0.05190476882953377</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.511035748728276</v>
+        <v>1.287426793298451</v>
       </c>
       <c r="G2">
-        <v>1.41764259692188</v>
+        <v>1.273033060956266</v>
       </c>
       <c r="H2">
-        <v>1.288948255308114</v>
+        <v>0.8204825431487137</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3301834923238971</v>
+        <v>0.8788670664648919</v>
       </c>
       <c r="L2">
-        <v>0.3050637716089284</v>
+        <v>0.3949816294574333</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6824973833680588</v>
+        <v>1.038689174473632</v>
       </c>
       <c r="C3">
-        <v>0.1717174886374124</v>
+        <v>0.1130490540212463</v>
       </c>
       <c r="D3">
-        <v>0.06474175850884123</v>
+        <v>0.05235667807860267</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.494950897819109</v>
+        <v>1.203520541132761</v>
       </c>
       <c r="G3">
-        <v>1.401719831964201</v>
+        <v>1.193417060471944</v>
       </c>
       <c r="H3">
-        <v>1.286134612341229</v>
+        <v>0.7905899040390381</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2983940222513581</v>
+        <v>0.761128153930116</v>
       </c>
       <c r="L3">
-        <v>0.2942318151794296</v>
+        <v>0.3482849617276997</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6590565873403023</v>
+        <v>0.9429682474302012</v>
       </c>
       <c r="C4">
-        <v>0.1716358574595223</v>
+        <v>0.1133469696917615</v>
       </c>
       <c r="D4">
-        <v>0.06459688050109236</v>
+        <v>0.05262267674042675</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.485791888115344</v>
+        <v>1.153954723236836</v>
       </c>
       <c r="G4">
-        <v>1.392627433488855</v>
+        <v>1.146546187405207</v>
       </c>
       <c r="H4">
-        <v>1.284895940418238</v>
+        <v>0.7733657310441657</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2790127680990082</v>
+        <v>0.6893123518183302</v>
       </c>
       <c r="L4">
-        <v>0.2877618200802203</v>
+        <v>0.3201204999040499</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6496090867790372</v>
+        <v>0.9041831992732909</v>
       </c>
       <c r="C5">
-        <v>0.1716014723689128</v>
+        <v>0.1134695498142602</v>
       </c>
       <c r="D5">
-        <v>0.06453584962459047</v>
+        <v>0.05272836042971107</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.482239630587856</v>
+        <v>1.134213403002775</v>
       </c>
       <c r="G5">
-        <v>1.389093932265439</v>
+        <v>1.12791677563456</v>
       </c>
       <c r="H5">
-        <v>1.284514069958973</v>
+        <v>0.7666146943527963</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2711494874784961</v>
+        <v>0.6601452124360776</v>
       </c>
       <c r="L5">
-        <v>0.2851706721039022</v>
+        <v>0.3087583525288835</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6480466738018436</v>
+        <v>0.8977554991379577</v>
       </c>
       <c r="C6">
-        <v>0.1715956951510123</v>
+        <v>0.1134899759486707</v>
       </c>
       <c r="D6">
-        <v>0.0645255953687176</v>
+        <v>0.05274575027602602</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.48166065290998</v>
+        <v>1.130962029535965</v>
       </c>
       <c r="G6">
-        <v>1.388517559112088</v>
+        <v>1.12485081715883</v>
       </c>
       <c r="H6">
-        <v>1.284458082175703</v>
+        <v>0.7655094187782225</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2698458978896809</v>
+        <v>0.6553073740648756</v>
       </c>
       <c r="L6">
-        <v>0.2847431561383047</v>
+        <v>0.3068782773287921</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6589287503522314</v>
+        <v>0.9424443199107202</v>
       </c>
       <c r="C7">
-        <v>0.1716353982624117</v>
+        <v>0.1133486180525498</v>
       </c>
       <c r="D7">
-        <v>0.06459606547575447</v>
+        <v>0.05262411278582313</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.485743252154791</v>
+        <v>1.153686677245418</v>
       </c>
       <c r="G7">
-        <v>1.392579084595155</v>
+        <v>1.146293083537103</v>
       </c>
       <c r="H7">
-        <v>1.284890292832614</v>
+        <v>0.7732736199532724</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2789065803118405</v>
+        <v>0.6889186225040334</v>
       </c>
       <c r="L7">
-        <v>0.2877266910867462</v>
+        <v>0.3199668159474385</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7078685450143212</v>
+        <v>1.141679145655985</v>
       </c>
       <c r="C8">
-        <v>0.1718007667288255</v>
+        <v>0.112735109775155</v>
       </c>
       <c r="D8">
-        <v>0.06488953089796823</v>
+        <v>0.05206307361862805</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.505340705730603</v>
+        <v>1.258069478887961</v>
       </c>
       <c r="G8">
-        <v>1.412010204318236</v>
+        <v>1.245141444760918</v>
       </c>
       <c r="H8">
-        <v>1.287876606923348</v>
+        <v>0.809930946655399</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.319193991686177</v>
+        <v>0.8381584630700445</v>
       </c>
       <c r="L8">
-        <v>0.3012913368137191</v>
+        <v>0.3787675010924403</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8071357546114086</v>
+        <v>1.541919133829424</v>
       </c>
       <c r="C9">
-        <v>0.172089663513276</v>
+        <v>0.1115675929671838</v>
       </c>
       <c r="D9">
-        <v>0.06540172063954586</v>
+        <v>0.05086390836138222</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.549475126859335</v>
+        <v>1.479910849294825</v>
       </c>
       <c r="G9">
-        <v>1.455562197576796</v>
+        <v>1.456688007398668</v>
       </c>
       <c r="H9">
-        <v>1.297615617899424</v>
+        <v>0.8915705722518226</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3992879050318265</v>
+        <v>1.135650339039586</v>
       </c>
       <c r="L9">
-        <v>0.3293309133720186</v>
+        <v>0.4987134112022744</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8820808639974018</v>
+        <v>1.844141445273834</v>
       </c>
       <c r="C10">
-        <v>0.1722803140321894</v>
+        <v>0.110730572533452</v>
       </c>
       <c r="D10">
-        <v>0.06573912850587149</v>
+        <v>0.04991135778044864</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.585401943901203</v>
+        <v>1.655844931814116</v>
       </c>
       <c r="G10">
-        <v>1.490911343895732</v>
+        <v>1.62551509955486</v>
       </c>
       <c r="H10">
-        <v>1.307145106672891</v>
+        <v>0.9586894955172056</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4588023491721174</v>
+        <v>1.358770667663578</v>
       </c>
       <c r="L10">
-        <v>0.3508175090868377</v>
+        <v>0.5905918885483317</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9166140273288761</v>
+        <v>1.983980388764564</v>
       </c>
       <c r="C11">
-        <v>0.1723623516588191</v>
+        <v>0.1103542048323796</v>
       </c>
       <c r="D11">
-        <v>0.06588411613811473</v>
+        <v>0.04945998567469445</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.602511743926357</v>
+        <v>1.739303923714104</v>
       </c>
       <c r="G11">
-        <v>1.50772718989424</v>
+        <v>1.705869347020695</v>
       </c>
       <c r="H11">
-        <v>1.311997558567356</v>
+        <v>0.9910659749899082</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4860238500847629</v>
+        <v>1.461657925268412</v>
       </c>
       <c r="L11">
-        <v>0.3607866767967067</v>
+        <v>0.6334323118883134</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9297540808586291</v>
+        <v>2.037325242054806</v>
       </c>
       <c r="C12">
-        <v>0.1723927423136722</v>
+        <v>0.1102123200476726</v>
       </c>
       <c r="D12">
-        <v>0.06593779154794177</v>
+        <v>0.04928625544487986</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.60910133953405</v>
+        <v>1.771456236870222</v>
       </c>
       <c r="G12">
-        <v>1.514201105653001</v>
+        <v>1.736867209477765</v>
       </c>
       <c r="H12">
-        <v>1.313909559136505</v>
+        <v>1.003618100493441</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4963531996169763</v>
+        <v>1.500854427794849</v>
       </c>
       <c r="L12">
-        <v>0.364589860963747</v>
+        <v>0.6498258470554958</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9269213324603811</v>
+        <v>2.025818208062333</v>
       </c>
       <c r="C13">
-        <v>0.1723862271839511</v>
+        <v>0.1102428489487295</v>
       </c>
       <c r="D13">
-        <v>0.06592628630538044</v>
+        <v>0.04932379953562105</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.607677234156242</v>
+        <v>1.764506338612861</v>
       </c>
       <c r="G13">
-        <v>1.512802106324699</v>
+        <v>1.730164949742203</v>
       </c>
       <c r="H13">
-        <v>1.313494461774752</v>
+        <v>1.000901342654373</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.49412765050036</v>
+        <v>1.492401689295548</v>
       </c>
       <c r="L13">
-        <v>0.3637695274645978</v>
+        <v>0.6462872608033763</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9176938041528047</v>
+        <v>1.988360952717983</v>
       </c>
       <c r="C14">
-        <v>0.1723648654529324</v>
+        <v>0.1103425190500342</v>
       </c>
       <c r="D14">
-        <v>0.0658885566950218</v>
+        <v>0.04944575023205999</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.60305165812261</v>
+        <v>1.74193779015188</v>
       </c>
       <c r="G14">
-        <v>1.508257673873004</v>
+        <v>1.708407793059564</v>
       </c>
       <c r="H14">
-        <v>1.312153366835446</v>
+        <v>0.9920926346063084</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4868732286169006</v>
+        <v>1.464877712495166</v>
       </c>
       <c r="L14">
-        <v>0.361099003980101</v>
+        <v>0.6347774699410991</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9120498870541951</v>
+        <v>1.965469833472753</v>
       </c>
       <c r="C15">
-        <v>0.1723516928217208</v>
+        <v>0.1104036531819848</v>
       </c>
       <c r="D15">
-        <v>0.06586528609339481</v>
+        <v>0.04952007688052618</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.60023275552453</v>
+        <v>1.728187032899399</v>
       </c>
       <c r="G15">
-        <v>1.50548790894544</v>
+        <v>1.695156892501814</v>
       </c>
       <c r="H15">
-        <v>1.311341609503671</v>
+        <v>0.9867358909167194</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4824324371597299</v>
+        <v>1.448050244444062</v>
       </c>
       <c r="L15">
-        <v>0.3594668895562734</v>
+        <v>0.6277502779349362</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8798328812167711</v>
+        <v>1.835054397693</v>
       </c>
       <c r="C16">
-        <v>0.1722748582333402</v>
+        <v>0.1107552577869964</v>
       </c>
       <c r="D16">
-        <v>0.06572948165979042</v>
+        <v>0.04994047498829701</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.584299224811247</v>
+        <v>1.650464261024126</v>
       </c>
       <c r="G16">
-        <v>1.48982721813536</v>
+        <v>1.62034014480983</v>
       </c>
       <c r="H16">
-        <v>1.306838406146198</v>
+        <v>0.9566129457545571</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.457026328133793</v>
+        <v>1.35207765819743</v>
       </c>
       <c r="L16">
-        <v>0.3501699259773261</v>
+        <v>0.587814901376646</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.860181397927505</v>
+        <v>1.755687825992794</v>
       </c>
       <c r="C17">
-        <v>0.1722265208460954</v>
+        <v>0.1109720831964154</v>
       </c>
       <c r="D17">
-        <v>0.06564398853166864</v>
+        <v>0.0501936049496905</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.574721028250622</v>
+        <v>1.603699238421086</v>
       </c>
       <c r="G17">
-        <v>1.480408499696324</v>
+        <v>1.575392624685378</v>
       </c>
       <c r="H17">
-        <v>1.30420841871782</v>
+        <v>0.9386239696868586</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4414783324118048</v>
+        <v>1.293581584431479</v>
       </c>
       <c r="L17">
-        <v>0.3445164798380773</v>
+        <v>0.5635974203411251</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8489198360947228</v>
+        <v>1.710256690185872</v>
       </c>
       <c r="C18">
-        <v>0.1721982770291834</v>
+        <v>0.1110972085450861</v>
       </c>
       <c r="D18">
-        <v>0.06559401533500164</v>
+        <v>0.05033751236949158</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.569284034836272</v>
+        <v>1.577120060609261</v>
       </c>
       <c r="G18">
-        <v>1.475060293204251</v>
+        <v>1.549870713510415</v>
       </c>
       <c r="H18">
-        <v>1.302744418819401</v>
+        <v>0.928448987979408</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4325494825533553</v>
+        <v>1.260064577714076</v>
       </c>
       <c r="L18">
-        <v>0.3412830995061995</v>
+        <v>0.5497651321565655</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.845113990724343</v>
+        <v>1.694910494068324</v>
       </c>
       <c r="C19">
-        <v>0.1721886383675209</v>
+        <v>0.1111396447626607</v>
       </c>
       <c r="D19">
-        <v>0.06557695808271191</v>
+        <v>0.05038595361779308</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.567455543027307</v>
+        <v>1.568173954384733</v>
       </c>
       <c r="G19">
-        <v>1.473261354512857</v>
+        <v>1.541284540759648</v>
       </c>
       <c r="H19">
-        <v>1.302257095492052</v>
+        <v>0.9250326466203376</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.429528726865442</v>
+        <v>1.248737313797193</v>
       </c>
       <c r="L19">
-        <v>0.3401914791567862</v>
+        <v>0.5450978138493809</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8622690433578271</v>
+        <v>1.764113566168788</v>
       </c>
       <c r="C20">
-        <v>0.1722317121349271</v>
+        <v>0.1109489589948112</v>
       </c>
       <c r="D20">
-        <v>0.06565317224067968</v>
+        <v>0.0501668348498292</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.575733176337877</v>
+        <v>1.60864407104377</v>
       </c>
       <c r="G20">
-        <v>1.481403974573027</v>
+        <v>1.580142731441981</v>
       </c>
       <c r="H20">
-        <v>1.304483344624288</v>
+        <v>0.9405209603587252</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4431320007347779</v>
+        <v>1.299795056154835</v>
       </c>
       <c r="L20">
-        <v>0.345116401043839</v>
+        <v>0.5661652336539618</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9204024422251678</v>
+        <v>1.999352009310883</v>
       </c>
       <c r="C21">
-        <v>0.1723711582413934</v>
+        <v>0.1103132261406206</v>
       </c>
       <c r="D21">
-        <v>0.06589967217615111</v>
+        <v>0.04941000819646746</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.604407301288177</v>
+        <v>1.748551373012702</v>
       </c>
       <c r="G21">
-        <v>1.509589600764144</v>
+        <v>1.71478244988279</v>
       </c>
       <c r="H21">
-        <v>1.312545256895135</v>
+        <v>0.9946718192670971</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.489003455019315</v>
+        <v>1.47295548394834</v>
       </c>
       <c r="L21">
-        <v>0.3618826389564873</v>
+        <v>0.6381533652996296</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9587636434100659</v>
+        <v>2.155400043539032</v>
       </c>
       <c r="C22">
-        <v>0.172458358384457</v>
+        <v>0.1099014625306367</v>
       </c>
       <c r="D22">
-        <v>0.06605361233060592</v>
+        <v>0.04889892420660047</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.623791616449267</v>
+        <v>1.843213871450672</v>
       </c>
       <c r="G22">
-        <v>1.528629260068698</v>
+        <v>1.806127668133342</v>
       </c>
       <c r="H22">
-        <v>1.318248358133729</v>
+        <v>1.031777966365297</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5191063662878435</v>
+        <v>1.587516576651154</v>
       </c>
       <c r="L22">
-        <v>0.3730040273859174</v>
+        <v>0.6862083006909785</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9382559765908809</v>
+        <v>2.071884769796441</v>
       </c>
       <c r="C23">
-        <v>0.1724121783944028</v>
+        <v>0.1101208837360268</v>
       </c>
       <c r="D23">
-        <v>0.06597210875595394</v>
+        <v>0.04917327583324038</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.613386819177407</v>
+        <v>1.792375879157163</v>
       </c>
       <c r="G23">
-        <v>1.518410697300908</v>
+        <v>1.757047686311864</v>
       </c>
       <c r="H23">
-        <v>1.315164753569888</v>
+        <v>1.01180725150121</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.503028641278064</v>
+        <v>1.526233232014192</v>
       </c>
       <c r="L23">
-        <v>0.3670533348437601</v>
+        <v>0.6604610551942471</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8613251056568458</v>
+        <v>1.760303676918568</v>
       </c>
       <c r="C24">
-        <v>0.1722293665670449</v>
+        <v>0.1109594119842257</v>
       </c>
       <c r="D24">
-        <v>0.06564902284582885</v>
+        <v>0.05017894264335965</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.575275367276475</v>
+        <v>1.606407561187808</v>
       </c>
       <c r="G24">
-        <v>1.480953712511308</v>
+        <v>1.577994218858777</v>
       </c>
       <c r="H24">
-        <v>1.304358901052552</v>
+        <v>0.9396628123235473</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4423843464418837</v>
+        <v>1.296985595756269</v>
       </c>
       <c r="L24">
-        <v>0.344845124154844</v>
+        <v>0.5650040443903777</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7799280555617543</v>
+        <v>1.432391383361221</v>
       </c>
       <c r="C25">
-        <v>0.1720153012040821</v>
+        <v>0.1118797428386369</v>
       </c>
       <c r="D25">
-        <v>0.06526996892149839</v>
+        <v>0.05120004885375629</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.536922474914959</v>
+        <v>1.41781596310264</v>
       </c>
       <c r="G25">
-        <v>1.44319387280504</v>
+        <v>1.397307077905026</v>
       </c>
       <c r="H25">
-        <v>1.294564535048465</v>
+        <v>0.8683235229170236</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3775031716853334</v>
+        <v>1.054495790608826</v>
       </c>
       <c r="L25">
-        <v>0.3215905022711354</v>
+        <v>0.4656772672167762</v>
       </c>
       <c r="M25">
         <v>0</v>
